--- a/raspisaniye_mt.xlsx
+++ b/raspisaniye_mt.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Серега\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Timetable\timetable\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8992F3EE-0A2B-45C2-9BD0-E28059D9D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F3DB9-5864-4A4D-A98B-D0C586FC87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ИМТ (очная ф.о.)" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
+    <sheet name="ИМТ (очная ф.о.)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ИМТ (очная ф.о.)'!$A$1:$EM$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ИМТ (очная ф.о.)'!$A$1:$EM$77</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12323,14 +12324,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726FEBBA-9837-427B-AC64-DB079A5F9F1C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="45"/>
   </sheetPr>
   <dimension ref="A1:FI227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="EC36" sqref="EC36"/>
+    <sheetView topLeftCell="DF1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="DG36" sqref="DG36:DH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/raspisaniye_mt.xlsx
+++ b/raspisaniye_mt.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Timetable\timetable\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Серега\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F3DB9-5864-4A4D-A98B-D0C586FC87BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDA459-0159-46DF-B9FE-D39894EE2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
-    <sheet name="ИМТ (очная ф.о.)" sheetId="2" r:id="rId2"/>
+    <sheet name="ИМТ (очная ф.о.)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'ИМТ (очная ф.о.)'!$A$1:$EM$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ИМТ (очная ф.о.)'!$A$1:$EM$77</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12324,26 +12323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726FEBBA-9837-427B-AC64-DB079A5F9F1C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="45"/>
   </sheetPr>
   <dimension ref="A1:FI227"/>
   <sheetViews>
-    <sheetView topLeftCell="DF1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="DG36" sqref="DG36:DH36"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="CO5" sqref="CO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12436,10 +12423,10 @@
     <col min="86" max="86" width="16.5703125" customWidth="1"/>
     <col min="87" max="87" width="90.7109375" customWidth="1"/>
     <col min="88" max="88" width="10.7109375" customWidth="1"/>
-    <col min="89" max="89" width="0.5703125" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="50.5703125" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="80.5703125" customWidth="1"/>
+    <col min="90" max="90" width="9.140625" customWidth="1"/>
+    <col min="91" max="91" width="45.42578125" customWidth="1"/>
+    <col min="92" max="92" width="29.7109375" customWidth="1"/>
     <col min="93" max="93" width="90.7109375" customWidth="1"/>
     <col min="94" max="94" width="10.7109375" customWidth="1"/>
     <col min="95" max="95" width="90.7109375" customWidth="1"/>
